--- a/biomagnetometer/darpa/Lin_DARPA_Tasks.xlsx
+++ b/biomagnetometer/darpa/Lin_DARPA_Tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27022"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-44840" yWindow="0" windowWidth="38980" windowHeight="25780" tabRatio="947" activeTab="2"/>
+    <workbookView xWindow="-42780" yWindow="2580" windowWidth="38980" windowHeight="25780" tabRatio="947"/>
   </bookViews>
   <sheets>
     <sheet name="Summary by Task" sheetId="12" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="229">
   <si>
     <t>Short TA text identifier</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -880,9 +880,6 @@
     <t>Casanova suppies</t>
   </si>
   <si>
-    <t>Lin supplies</t>
-  </si>
-  <si>
     <t>Texas Tech</t>
   </si>
   <si>
@@ -890,6 +887,9 @@
   </si>
   <si>
     <t>Publications</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
   <si>
     <t>12 months</t>
@@ -914,6 +914,36 @@
   </si>
   <si>
     <t>Dr. Jenshan Lin</t>
+  </si>
+  <si>
+    <t>BOM attached in budget justification</t>
+  </si>
+  <si>
+    <t>Annual DARPA MEETING</t>
+  </si>
+  <si>
+    <t>GNV</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>to attend DARPA meeting</t>
+  </si>
+  <si>
+    <t>TBA Conference</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>to attend a conference</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1722,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="56">
+  <cellStyleXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1749,6 +1779,14 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="424">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3010,7 +3048,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="56">
+  <cellStyles count="64">
     <cellStyle name="Currency" xfId="4" builtinId="4"/>
     <cellStyle name="Currency 2" xfId="3"/>
     <cellStyle name="Currency 2 2" xfId="9"/>
@@ -3038,6 +3076,10 @@
     <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
@@ -3061,6 +3103,10 @@
     <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
@@ -3433,11 +3479,11 @@
   </sheetPr>
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3535,23 +3581,23 @@
       </c>
       <c r="D7" s="136">
         <f>'Phase I'!$BD22</f>
-        <v>714455.82743084978</v>
+        <v>720635.82743084978</v>
       </c>
       <c r="E7" s="136">
         <f>'Phase II'!$BD22</f>
-        <v>570360.48228316486</v>
+        <v>561090.48228316486</v>
       </c>
       <c r="F7" s="136">
         <f>'Phase III'!$BD22</f>
-        <v>586671.0167516598</v>
+        <v>577401.0167516598</v>
       </c>
       <c r="G7" s="137">
         <f>SUM(D7:F7)</f>
-        <v>1871487.3264656744</v>
+        <v>1859127.3264656744</v>
       </c>
       <c r="H7" s="138">
         <f>G7/G$11</f>
-        <v>0.90632730317496191</v>
+        <v>0.90576322792399089</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" hidden="1">
@@ -3636,7 +3682,7 @@
       </c>
       <c r="H10" s="138">
         <f>G10/G$11</f>
-        <v>9.3672696825038079E-2</v>
+        <v>9.423677207600907E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16">
@@ -3647,19 +3693,19 @@
       </c>
       <c r="D11" s="142">
         <f>SUM(D7:D10)</f>
-        <v>791604.82743084978</v>
+        <v>797784.82743084978</v>
       </c>
       <c r="E11" s="142">
         <f>SUM(E7:E10)</f>
-        <v>627608.48228316486</v>
+        <v>618338.48228316486</v>
       </c>
       <c r="F11" s="142">
         <f>SUM(F7:F10)</f>
-        <v>645700.0167516598</v>
+        <v>636430.0167516598</v>
       </c>
       <c r="G11" s="142">
         <f>SUM(G7:G10)</f>
-        <v>2064913.3264656744</v>
+        <v>2052553.3264656744</v>
       </c>
       <c r="H11" s="143">
         <f>SUM(H7:H10)</f>
@@ -3726,23 +3772,23 @@
       </c>
       <c r="D15" s="136">
         <f>'Phase I'!$I22</f>
-        <v>188959.74810050981</v>
+        <v>198615.99810050981</v>
       </c>
       <c r="E15" s="136">
         <f>'Phase II'!$I22</f>
-        <v>166627.58802590086</v>
+        <v>160138.58802590086</v>
       </c>
       <c r="F15" s="136">
         <f>'Phase III'!$I22</f>
-        <v>171153.64566667788</v>
+        <v>164664.64566667788</v>
       </c>
       <c r="G15" s="137">
         <f>SUM(D15:F15)</f>
-        <v>526740.98179308849</v>
+        <v>523419.23179308849</v>
       </c>
       <c r="H15" s="138">
         <f>G15/G$32</f>
-        <v>0.25509108544263381</v>
+        <v>0.25500883462763563</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16">
@@ -3755,23 +3801,23 @@
       </c>
       <c r="D16" s="136">
         <f>'Phase I'!$K22</f>
-        <v>209663.75521571242</v>
+        <v>215689.25521571242</v>
       </c>
       <c r="E16" s="136">
         <f>'Phase II'!$K22</f>
-        <v>154667.7219147892</v>
+        <v>160693.2219147892</v>
       </c>
       <c r="F16" s="136">
         <f>'Phase III'!$K22</f>
-        <v>158283.41857223288</v>
+        <v>164308.91857223288</v>
       </c>
       <c r="G16" s="137">
         <f>SUM(D16:F16)</f>
-        <v>522614.89570273453</v>
+        <v>540691.39570273459</v>
       </c>
       <c r="H16" s="138">
         <f t="shared" ref="H16:H31" si="1">G16/G$32</f>
-        <v>0.2530928969291158</v>
+        <v>0.26342379938735144</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="16">
@@ -3800,7 +3846,7 @@
       </c>
       <c r="H17" s="138">
         <f t="shared" si="1"/>
-        <v>0.26318397631254475</v>
+        <v>0.26476880916696044</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="16">
@@ -3813,23 +3859,23 @@
       </c>
       <c r="D18" s="136">
         <f>'Phase I'!$O22</f>
-        <v>105124.62411462746</v>
+        <v>95622.874114627455</v>
       </c>
       <c r="E18" s="136">
         <f>'Phase II'!$O22</f>
-        <v>85554.072342474712</v>
+        <v>76747.572342474712</v>
       </c>
       <c r="F18" s="136">
         <f>'Phase III'!$O22</f>
-        <v>88000.652512748959</v>
+        <v>79194.152512748959</v>
       </c>
       <c r="G18" s="137">
         <f t="shared" si="2"/>
-        <v>278679.34896985115</v>
+        <v>251564.59896985113</v>
       </c>
       <c r="H18" s="138">
         <f t="shared" si="1"/>
-        <v>0.13495934449066754</v>
+        <v>0.12256178474204342</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="16" hidden="1">
@@ -4195,7 +4241,7 @@
       </c>
       <c r="H31" s="138">
         <f t="shared" si="1"/>
-        <v>9.3672696825038093E-2</v>
+        <v>9.4236772076009084E-2</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="16">
@@ -4205,19 +4251,19 @@
       </c>
       <c r="D32" s="142">
         <f>SUM(D15:D31)</f>
-        <v>791604.82743084966</v>
+        <v>797784.82743084966</v>
       </c>
       <c r="E32" s="142">
         <f>SUM(E15:E31)</f>
-        <v>627608.48228316475</v>
+        <v>618338.48228316475</v>
       </c>
       <c r="F32" s="142">
         <f>SUM(F15:F31)</f>
-        <v>645700.0167516598</v>
+        <v>636430.0167516598</v>
       </c>
       <c r="G32" s="142">
         <f>SUM(G15:G31)</f>
-        <v>2064913.3264656742</v>
+        <v>2052553.3264656742</v>
       </c>
       <c r="H32" s="145">
         <f>SUM(H15:H31)</f>
@@ -6565,7 +6611,7 @@
       <c r="D10" s="64"/>
       <c r="E10" s="160">
         <f>'Phase I'!$BD$10</f>
-        <v>41000</v>
+        <v>45000</v>
       </c>
       <c r="F10" s="160">
         <f>'Phase I'!$BF$10</f>
@@ -6581,7 +6627,7 @@
       <c r="I10" s="63"/>
       <c r="J10" s="161">
         <f>'Phase I'!$BM$10</f>
-        <v>41000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="61" customFormat="1">
@@ -6646,7 +6692,7 @@
       <c r="D13" s="64"/>
       <c r="E13" s="162">
         <f>'Phase I'!$BD$14</f>
-        <v>535401.69412999984</v>
+        <v>539401.69412999984</v>
       </c>
       <c r="F13" s="162">
         <f>'Phase I'!$BF$14</f>
@@ -6663,7 +6709,7 @@
       <c r="I13" s="63"/>
       <c r="J13" s="163">
         <f>'Phase I'!$BM$14</f>
-        <v>603285.69412999984</v>
+        <v>607285.69412999984</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="80" customFormat="1">
@@ -6674,7 +6720,7 @@
       <c r="D14" s="64"/>
       <c r="E14" s="160">
         <f>'Phase I'!$BD$20</f>
-        <v>328539.69412999984</v>
+        <v>332539.69412999984</v>
       </c>
       <c r="F14" s="160">
         <f>'Phase I'!$BF$20</f>
@@ -6691,7 +6737,7 @@
       <c r="I14" s="63"/>
       <c r="J14" s="161">
         <f>'Phase I'!$BM$20</f>
-        <v>396423.69412999984</v>
+        <v>400423.69412999984</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="80" customFormat="1" ht="14" thickBot="1">
@@ -6702,7 +6748,7 @@
       <c r="D15" s="64"/>
       <c r="E15" s="164">
         <f>'Phase I'!$BD$21</f>
-        <v>179054.13330084994</v>
+        <v>181234.13330084994</v>
       </c>
       <c r="F15" s="164">
         <f>'Phase I'!$BF$21</f>
@@ -6719,7 +6765,7 @@
       <c r="I15" s="63"/>
       <c r="J15" s="165">
         <f>'Phase I'!$BM$21</f>
-        <v>188319.13330084994</v>
+        <v>190499.13330084994</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="61" customFormat="1" ht="17" thickBot="1">
@@ -6730,7 +6776,7 @@
       <c r="D16" s="64"/>
       <c r="E16" s="166">
         <f>'Phase I'!$BD$22</f>
-        <v>714455.82743084978</v>
+        <v>720635.82743084978</v>
       </c>
       <c r="F16" s="166">
         <f>'Phase I'!$BF$22</f>
@@ -6747,7 +6793,7 @@
       <c r="I16" s="63"/>
       <c r="J16" s="166">
         <f>'Phase I'!$BM$22</f>
-        <v>791604.82743084978</v>
+        <v>797784.82743084978</v>
       </c>
     </row>
     <row r="17" spans="2:10" s="61" customFormat="1" ht="14" thickBot="1">
@@ -6809,7 +6855,7 @@
       <c r="D20" s="64"/>
       <c r="E20" s="160">
         <f>'Phase II'!$BD$10</f>
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="F20" s="160">
         <f>'Phase II'!$BF$10</f>
@@ -6825,7 +6871,7 @@
       <c r="I20" s="63"/>
       <c r="J20" s="161">
         <f>'Phase II'!$BM$10</f>
-        <v>38000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="21" spans="2:10" s="61" customFormat="1">
@@ -6890,7 +6936,7 @@
       <c r="D23" s="64"/>
       <c r="E23" s="162">
         <f>'Phase II'!$BD$14</f>
-        <v>437022.62283699989</v>
+        <v>431022.62283699989</v>
       </c>
       <c r="F23" s="162">
         <f>'Phase II'!$BF$14</f>
@@ -6907,7 +6953,7 @@
       <c r="I23" s="63"/>
       <c r="J23" s="163">
         <f>'Phase II'!$BM$14</f>
-        <v>486640.62283699989</v>
+        <v>480640.62283699989</v>
       </c>
     </row>
     <row r="24" spans="2:10" s="80" customFormat="1">
@@ -6918,7 +6964,7 @@
       <c r="D24" s="64"/>
       <c r="E24" s="160">
         <f>'Phase II'!$BD$20</f>
-        <v>244656.62283699989</v>
+        <v>238656.62283699989</v>
       </c>
       <c r="F24" s="160">
         <f>'Phase II'!$BF$20</f>
@@ -6935,7 +6981,7 @@
       <c r="I24" s="63"/>
       <c r="J24" s="161">
         <f>'Phase II'!$BM$20</f>
-        <v>294274.62283699989</v>
+        <v>288274.62283699989</v>
       </c>
     </row>
     <row r="25" spans="2:10" s="80" customFormat="1" ht="14" thickBot="1">
@@ -6946,7 +6992,7 @@
       <c r="D25" s="64"/>
       <c r="E25" s="164">
         <f>'Phase II'!$BD$21</f>
-        <v>133337.85944616495</v>
+        <v>130067.85944616495</v>
       </c>
       <c r="F25" s="164">
         <f>'Phase II'!$BF$21</f>
@@ -6963,7 +7009,7 @@
       <c r="I25" s="63"/>
       <c r="J25" s="165">
         <f>'Phase II'!$BM$21</f>
-        <v>140967.85944616495</v>
+        <v>137697.85944616495</v>
       </c>
     </row>
     <row r="26" spans="2:10" s="61" customFormat="1" ht="17" thickBot="1">
@@ -6974,7 +7020,7 @@
       <c r="D26" s="64"/>
       <c r="E26" s="166">
         <f>'Phase II'!$BD$22</f>
-        <v>570360.48228316486</v>
+        <v>561090.48228316486</v>
       </c>
       <c r="F26" s="166">
         <f>'Phase II'!$BF$22</f>
@@ -6991,7 +7037,7 @@
       <c r="I26" s="63"/>
       <c r="J26" s="166">
         <f>'Phase II'!$BM$22</f>
-        <v>627608.48228316486</v>
+        <v>618338.48228316486</v>
       </c>
     </row>
     <row r="27" spans="2:10" s="61" customFormat="1" ht="14" thickBot="1">
@@ -7053,7 +7099,7 @@
       <c r="D30" s="64"/>
       <c r="E30" s="160">
         <f>'Phase III'!$BD$10</f>
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="F30" s="160">
         <f>'Phase III'!$BF$10</f>
@@ -7069,7 +7115,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="161">
         <f>'Phase III'!$BM$10</f>
-        <v>38000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="31" spans="2:10" s="61" customFormat="1">
@@ -7134,7 +7180,7 @@
       <c r="D33" s="64"/>
       <c r="E33" s="162">
         <f>'Phase III'!$BD$14</f>
-        <v>449954.32152210991</v>
+        <v>443954.32152210991</v>
       </c>
       <c r="F33" s="162">
         <f>'Phase III'!$BF$14</f>
@@ -7151,7 +7197,7 @@
       <c r="I33" s="63"/>
       <c r="J33" s="163">
         <f>'Phase III'!$BM$14</f>
-        <v>501353.32152210991</v>
+        <v>495353.32152210991</v>
       </c>
     </row>
     <row r="34" spans="2:10" s="80" customFormat="1">
@@ -7162,7 +7208,7 @@
       <c r="D34" s="64"/>
       <c r="E34" s="160">
         <f>'Phase III'!$BD$20</f>
-        <v>250856.32152210991</v>
+        <v>244856.32152210991</v>
       </c>
       <c r="F34" s="160">
         <f>'Phase III'!$BF$20</f>
@@ -7179,7 +7225,7 @@
       <c r="I34" s="63"/>
       <c r="J34" s="161">
         <f>'Phase III'!$BM$20</f>
-        <v>302255.32152210991</v>
+        <v>296255.32152210991</v>
       </c>
     </row>
     <row r="35" spans="2:10" s="80" customFormat="1" ht="14" thickBot="1">
@@ -7190,7 +7236,7 @@
       <c r="D35" s="64"/>
       <c r="E35" s="164">
         <f>'Phase III'!$BD$21</f>
-        <v>136716.69522954992</v>
+        <v>133446.69522954992</v>
       </c>
       <c r="F35" s="164">
         <f>'Phase III'!$BF$21</f>
@@ -7207,7 +7253,7 @@
       <c r="I35" s="63"/>
       <c r="J35" s="165">
         <f>'Phase III'!$BM$21</f>
-        <v>144346.69522954992</v>
+        <v>141076.69522954992</v>
       </c>
     </row>
     <row r="36" spans="2:10" s="61" customFormat="1" ht="17" thickBot="1">
@@ -7218,7 +7264,7 @@
       <c r="D36" s="64"/>
       <c r="E36" s="166">
         <f>'Phase III'!$BD$22</f>
-        <v>586671.0167516598</v>
+        <v>577401.0167516598</v>
       </c>
       <c r="F36" s="166">
         <f>'Phase III'!$BF$22</f>
@@ -7235,7 +7281,7 @@
       <c r="I36" s="63"/>
       <c r="J36" s="166">
         <f>'Phase III'!$BM$22</f>
-        <v>645700.0167516598</v>
+        <v>636430.0167516598</v>
       </c>
     </row>
     <row r="37" spans="2:10" s="61" customFormat="1" ht="14" thickBot="1">
@@ -7267,7 +7313,7 @@
       <c r="D39" s="64"/>
       <c r="E39" s="86">
         <f>E16+E26+E36</f>
-        <v>1871487.3264656744</v>
+        <v>1859127.3264656744</v>
       </c>
       <c r="F39" s="86">
         <f>F16+F26+F36</f>
@@ -7284,7 +7330,7 @@
       <c r="I39" s="63"/>
       <c r="J39" s="86">
         <f>J16+J26+J36</f>
-        <v>2064913.3264656744</v>
+        <v>2052553.3264656744</v>
       </c>
     </row>
     <row r="43" spans="2:10">
@@ -7319,11 +7365,11 @@
   </sheetPr>
   <dimension ref="A1:BM78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="C45" sqref="C45:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -8399,12 +8445,12 @@
       <c r="H10" s="71"/>
       <c r="I10" s="72">
         <f>I56</f>
-        <v>12750</v>
+        <v>19000</v>
       </c>
       <c r="J10" s="71"/>
       <c r="K10" s="72">
         <f>K56</f>
-        <v>22100</v>
+        <v>26000</v>
       </c>
       <c r="L10" s="71"/>
       <c r="M10" s="72">
@@ -8414,7 +8460,7 @@
       <c r="N10" s="71"/>
       <c r="O10" s="72">
         <f>O56</f>
-        <v>6150</v>
+        <v>0</v>
       </c>
       <c r="P10" s="71"/>
       <c r="Q10" s="72">
@@ -8429,7 +8475,7 @@
       <c r="T10" s="73"/>
       <c r="U10" s="275">
         <f>U56</f>
-        <v>41000</v>
+        <v>45000</v>
       </c>
       <c r="W10" s="71"/>
       <c r="X10" s="72">
@@ -8499,7 +8545,7 @@
       <c r="BC10" s="68"/>
       <c r="BD10" s="75">
         <f>BD56</f>
-        <v>41000</v>
+        <v>45000</v>
       </c>
       <c r="BE10" s="68"/>
       <c r="BF10" s="76">
@@ -8519,7 +8565,7 @@
       <c r="BL10" s="78"/>
       <c r="BM10" s="79">
         <f>BM56</f>
-        <v>41000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="11" spans="1:65" s="61" customFormat="1" ht="14">
@@ -8941,12 +8987,12 @@
       <c r="H14" s="71"/>
       <c r="I14" s="72">
         <f>SUM(I9:I13)</f>
-        <v>122304.04407799988</v>
+        <v>128554.04407799988</v>
       </c>
       <c r="J14" s="71"/>
       <c r="K14" s="72">
         <f>SUM(K9:K13)</f>
-        <v>135704.69593249995</v>
+        <v>139604.69593249995</v>
       </c>
       <c r="L14" s="71"/>
       <c r="M14" s="72">
@@ -8956,7 +9002,7 @@
       <c r="N14" s="71"/>
       <c r="O14" s="72">
         <f>SUM(O9:O13)</f>
-        <v>80310.254119499965</v>
+        <v>74160.254119499965</v>
       </c>
       <c r="P14" s="71"/>
       <c r="Q14" s="72">
@@ -8971,7 +9017,7 @@
       <c r="T14" s="73"/>
       <c r="U14" s="275">
         <f>SUM(U9:U13)</f>
-        <v>535401.69412999984</v>
+        <v>539401.69412999984</v>
       </c>
       <c r="W14" s="71"/>
       <c r="X14" s="72">
@@ -9050,7 +9096,7 @@
       <c r="BC14" s="68"/>
       <c r="BD14" s="75">
         <f>SUM(BD9:BD13)</f>
-        <v>535401.69412999984</v>
+        <v>539401.69412999984</v>
       </c>
       <c r="BE14" s="68"/>
       <c r="BF14" s="76">
@@ -9070,7 +9116,7 @@
       <c r="BL14" s="78"/>
       <c r="BM14" s="79">
         <f>SUM(BM9:BM13,BJ14)</f>
-        <v>603285.69412999984</v>
+        <v>607285.69412999984</v>
       </c>
     </row>
     <row r="15" spans="1:65" s="80" customFormat="1" ht="14">
@@ -9538,12 +9584,12 @@
       <c r="H20" s="71"/>
       <c r="I20" s="72">
         <f>I14-I19</f>
-        <v>122304.04407799988</v>
+        <v>128554.04407799988</v>
       </c>
       <c r="J20" s="72"/>
       <c r="K20" s="72">
         <f t="shared" ref="K20:S20" si="1">K14-K19</f>
-        <v>135704.69593249995</v>
+        <v>139604.69593249995</v>
       </c>
       <c r="L20" s="72"/>
       <c r="M20" s="72">
@@ -9553,7 +9599,7 @@
       <c r="N20" s="72"/>
       <c r="O20" s="72">
         <f t="shared" si="1"/>
-        <v>45530.954119499969</v>
+        <v>39380.954119499969</v>
       </c>
       <c r="P20" s="72"/>
       <c r="Q20" s="72">
@@ -9568,7 +9614,7 @@
       <c r="T20" s="72"/>
       <c r="U20" s="275">
         <f>U14-U19</f>
-        <v>328539.69412999984</v>
+        <v>332539.69412999984</v>
       </c>
       <c r="W20" s="71"/>
       <c r="X20" s="72">
@@ -9647,7 +9693,7 @@
       <c r="BC20" s="68"/>
       <c r="BD20" s="75">
         <f>BD14-BD19</f>
-        <v>328539.69412999984</v>
+        <v>332539.69412999984</v>
       </c>
       <c r="BE20" s="68"/>
       <c r="BF20" s="76">
@@ -9667,7 +9713,7 @@
       <c r="BL20" s="78"/>
       <c r="BM20" s="79">
         <f>SUM(BD20,BF20,BH20,BJ20)</f>
-        <v>396423.69412999984</v>
+        <v>400423.69412999984</v>
       </c>
     </row>
     <row r="21" spans="2:65" s="80" customFormat="1" ht="15" thickBot="1">
@@ -9686,12 +9732,12 @@
       <c r="H21" s="71"/>
       <c r="I21" s="72">
         <f>I20*$E$21</f>
-        <v>66655.704022509934</v>
+        <v>70061.954022509934</v>
       </c>
       <c r="J21" s="72"/>
       <c r="K21" s="72">
         <f t="shared" ref="K21:S21" si="14">K20*$E$21</f>
-        <v>73959.059283212482</v>
+        <v>76084.559283212482</v>
       </c>
       <c r="L21" s="72"/>
       <c r="M21" s="72">
@@ -9701,7 +9747,7 @@
       <c r="N21" s="72"/>
       <c r="O21" s="72">
         <f t="shared" si="14"/>
-        <v>24814.369995127487</v>
+        <v>21462.619995127487</v>
       </c>
       <c r="P21" s="72"/>
       <c r="Q21" s="72">
@@ -9716,7 +9762,7 @@
       <c r="T21" s="72"/>
       <c r="U21" s="275">
         <f>U20*$E$21</f>
-        <v>179054.13330084994</v>
+        <v>181234.13330084994</v>
       </c>
       <c r="W21" s="71"/>
       <c r="X21" s="72">
@@ -9795,7 +9841,7 @@
       <c r="BC21" s="68"/>
       <c r="BD21" s="75">
         <f t="shared" ref="BD21" si="26">BD20*$E$21</f>
-        <v>179054.13330084994</v>
+        <v>181234.13330084994</v>
       </c>
       <c r="BE21" s="68"/>
       <c r="BF21" s="76">
@@ -9815,7 +9861,7 @@
       <c r="BL21" s="78"/>
       <c r="BM21" s="79">
         <f>SUM(BD21,BF21,BH21,BJ21)</f>
-        <v>188319.13330084994</v>
+        <v>190499.13330084994</v>
       </c>
     </row>
     <row r="22" spans="2:65" s="61" customFormat="1" ht="17" thickBot="1">
@@ -9830,12 +9876,12 @@
       <c r="H22" s="71"/>
       <c r="I22" s="86">
         <f>I21+I14</f>
-        <v>188959.74810050981</v>
+        <v>198615.99810050981</v>
       </c>
       <c r="J22" s="71"/>
       <c r="K22" s="86">
         <f>K21+K14</f>
-        <v>209663.75521571242</v>
+        <v>215689.25521571242</v>
       </c>
       <c r="L22" s="71"/>
       <c r="M22" s="86">
@@ -9845,7 +9891,7 @@
       <c r="N22" s="71"/>
       <c r="O22" s="86">
         <f>O21+O14</f>
-        <v>105124.62411462746</v>
+        <v>95622.874114627455</v>
       </c>
       <c r="P22" s="71"/>
       <c r="Q22" s="86">
@@ -9860,7 +9906,7 @@
       <c r="T22" s="73"/>
       <c r="U22" s="277">
         <f>U21+U14</f>
-        <v>714455.82743084978</v>
+        <v>720635.82743084978</v>
       </c>
       <c r="W22" s="71"/>
       <c r="X22" s="86">
@@ -9939,7 +9985,7 @@
       <c r="BC22" s="68"/>
       <c r="BD22" s="88">
         <f>BD21+BD14</f>
-        <v>714455.82743084978</v>
+        <v>720635.82743084978</v>
       </c>
       <c r="BE22" s="68"/>
       <c r="BF22" s="89">
@@ -9959,7 +10005,7 @@
       <c r="BL22" s="78"/>
       <c r="BM22" s="91">
         <f>BM21+BM14</f>
-        <v>791604.82743084978</v>
+        <v>797784.82743084978</v>
       </c>
     </row>
     <row r="23" spans="2:65" s="61" customFormat="1" ht="14" thickBot="1">
@@ -12367,7 +12413,7 @@
         <v>204</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="D45" s="224" t="s">
         <v>130</v>
@@ -12385,11 +12431,11 @@
         <v>0</v>
       </c>
       <c r="J45" s="115">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K45" s="72">
         <f>$E45*J45</f>
-        <v>5100</v>
+        <v>6000</v>
       </c>
       <c r="L45" s="115">
         <v>0</v>
@@ -12399,11 +12445,11 @@
         <v>0</v>
       </c>
       <c r="N45" s="115">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O45" s="72">
         <f>$E45*N45</f>
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="P45" s="115">
         <v>0</v>
@@ -12555,7 +12601,7 @@
         <v>205</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="D46" s="224" t="s">
         <v>130</v>
@@ -12573,11 +12619,11 @@
         <v>0</v>
       </c>
       <c r="J46" s="115">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K46" s="72">
         <f t="shared" ref="K46:K55" si="83">$E46*J46</f>
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L46" s="115">
         <v>0</v>
@@ -12587,11 +12633,11 @@
         <v>0</v>
       </c>
       <c r="N46" s="115">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O46" s="72">
         <f t="shared" ref="O46:O55" si="85">$E46*N46</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="P46" s="115"/>
       <c r="Q46" s="72"/>
@@ -12659,22 +12705,22 @@
         <v>206</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="D47" s="224" t="s">
         <v>130</v>
       </c>
       <c r="E47" s="92">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="F47" s="93"/>
       <c r="G47" s="94"/>
       <c r="H47" s="115">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I47" s="72">
         <f t="shared" si="82"/>
-        <v>8500</v>
+        <v>19000</v>
       </c>
       <c r="J47" s="115">
         <v>0</v>
@@ -12691,11 +12737,11 @@
         <v>0</v>
       </c>
       <c r="N47" s="115">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O47" s="72">
         <f t="shared" si="85"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P47" s="115"/>
       <c r="Q47" s="72"/>
@@ -12707,7 +12753,7 @@
       </c>
       <c r="U47" s="276">
         <f t="shared" si="75"/>
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="W47" s="115"/>
       <c r="X47" s="72"/>
@@ -12740,7 +12786,7 @@
       </c>
       <c r="BD47" s="75">
         <f t="shared" si="78"/>
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="BE47" s="98"/>
       <c r="BF47" s="76"/>
@@ -12755,12 +12801,12 @@
       </c>
       <c r="BM47" s="79">
         <f t="shared" si="81"/>
-        <v>10000</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="48" spans="2:65">
       <c r="B48" s="35" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="C48" s="35" t="s">
         <v>181</v>
@@ -12769,16 +12815,16 @@
         <v>130</v>
       </c>
       <c r="E48" s="92">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F48" s="93"/>
       <c r="G48" s="94"/>
       <c r="H48" s="115">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I48" s="72">
         <f t="shared" si="82"/>
-        <v>4250</v>
+        <v>0</v>
       </c>
       <c r="J48" s="115">
         <v>0</v>
@@ -12795,11 +12841,11 @@
         <v>0</v>
       </c>
       <c r="N48" s="115">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O48" s="72">
         <f t="shared" si="85"/>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="P48" s="115"/>
       <c r="Q48" s="72"/>
@@ -12807,11 +12853,11 @@
       <c r="S48" s="72"/>
       <c r="T48" s="98">
         <f t="shared" si="86"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" s="276">
         <f t="shared" si="75"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="W48" s="115"/>
       <c r="X48" s="72"/>
@@ -12840,11 +12886,11 @@
       <c r="BA48" s="97"/>
       <c r="BC48" s="98">
         <f t="shared" si="87"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD48" s="75">
         <f t="shared" si="78"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="BE48" s="98"/>
       <c r="BF48" s="76"/>
@@ -12855,11 +12901,11 @@
       <c r="BK48" s="61"/>
       <c r="BL48" s="78">
         <f t="shared" si="88"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM48" s="79">
         <f t="shared" si="81"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:65">
@@ -13686,12 +13732,12 @@
       <c r="H56" s="117"/>
       <c r="I56" s="102">
         <f>SUM(I45:I55)</f>
-        <v>12750</v>
+        <v>19000</v>
       </c>
       <c r="J56" s="117"/>
       <c r="K56" s="102">
         <f>SUM(K45:K55)</f>
-        <v>22100</v>
+        <v>26000</v>
       </c>
       <c r="L56" s="117"/>
       <c r="M56" s="102">
@@ -13701,7 +13747,7 @@
       <c r="N56" s="117"/>
       <c r="O56" s="102">
         <f>SUM(O45:O55)</f>
-        <v>6150</v>
+        <v>0</v>
       </c>
       <c r="P56" s="117"/>
       <c r="Q56" s="102">
@@ -13716,7 +13762,7 @@
       <c r="T56" s="118"/>
       <c r="U56" s="278">
         <f>SUM(U45:U55)</f>
-        <v>41000</v>
+        <v>45000</v>
       </c>
       <c r="V56" s="99"/>
       <c r="W56" s="117"/>
@@ -13784,7 +13830,7 @@
       <c r="BC56" s="119"/>
       <c r="BD56" s="105">
         <f>SUM(BD45:BD55)</f>
-        <v>41000</v>
+        <v>45000</v>
       </c>
       <c r="BE56" s="119"/>
       <c r="BF56" s="106">
@@ -13802,7 +13848,7 @@
       <c r="BL56" s="121"/>
       <c r="BM56" s="109">
         <f>SUM(BM45:BM55)</f>
-        <v>41000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="57" spans="2:65" ht="14" thickBot="1">
@@ -15109,10 +15155,10 @@
     </row>
     <row r="69" spans="2:65">
       <c r="B69" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="247" t="s">
         <v>179</v>
@@ -15724,7 +15770,7 @@
       <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" sqref="A1:A2"/>
+      <selection pane="bottomRight" activeCell="C45" sqref="C45:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -16800,12 +16846,12 @@
       <c r="H10" s="71"/>
       <c r="I10" s="72">
         <f>I56</f>
-        <v>10200</v>
+        <v>6000</v>
       </c>
       <c r="J10" s="71"/>
       <c r="K10" s="72">
         <f>K56</f>
-        <v>22100</v>
+        <v>26000</v>
       </c>
       <c r="L10" s="71"/>
       <c r="M10" s="72">
@@ -16815,7 +16861,7 @@
       <c r="N10" s="71"/>
       <c r="O10" s="72">
         <f>O56</f>
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="P10" s="71"/>
       <c r="Q10" s="72">
@@ -16830,7 +16876,7 @@
       <c r="T10" s="73"/>
       <c r="U10" s="275">
         <f>U56</f>
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="W10" s="71"/>
       <c r="X10" s="72">
@@ -16900,7 +16946,7 @@
       <c r="BC10" s="68"/>
       <c r="BD10" s="75">
         <f>BD56</f>
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="BE10" s="68"/>
       <c r="BF10" s="76">
@@ -16920,7 +16966,7 @@
       <c r="BL10" s="78"/>
       <c r="BM10" s="79">
         <f>BM56</f>
-        <v>38000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="11" spans="1:65" s="61" customFormat="1" ht="14">
@@ -17342,12 +17388,12 @@
       <c r="H14" s="71"/>
       <c r="I14" s="72">
         <f>SUM(I9:I13)</f>
-        <v>107849.5715377999</v>
+        <v>103649.5715377999</v>
       </c>
       <c r="J14" s="71"/>
       <c r="K14" s="72">
         <f>SUM(K9:K13)</f>
-        <v>100108.55787364997</v>
+        <v>104008.55787364997</v>
       </c>
       <c r="L14" s="71"/>
       <c r="M14" s="72">
@@ -17357,7 +17403,7 @@
       <c r="N14" s="71"/>
       <c r="O14" s="72">
         <f>SUM(O9:O13)</f>
-        <v>65553.393425549977</v>
+        <v>59853.393425549977</v>
       </c>
       <c r="P14" s="71"/>
       <c r="Q14" s="72">
@@ -17372,7 +17418,7 @@
       <c r="T14" s="73"/>
       <c r="U14" s="275">
         <f>SUM(U9:U13)</f>
-        <v>437022.62283699989</v>
+        <v>431022.62283699989</v>
       </c>
       <c r="W14" s="71"/>
       <c r="X14" s="72">
@@ -17451,7 +17497,7 @@
       <c r="BC14" s="68"/>
       <c r="BD14" s="75">
         <f>SUM(BD9:BD13)</f>
-        <v>437022.62283699989</v>
+        <v>431022.62283699989</v>
       </c>
       <c r="BE14" s="68"/>
       <c r="BF14" s="76">
@@ -17471,7 +17517,7 @@
       <c r="BL14" s="78"/>
       <c r="BM14" s="79">
         <f>SUM(BM9:BM13,BJ14)</f>
-        <v>486640.62283699989</v>
+        <v>480640.62283699989</v>
       </c>
     </row>
     <row r="15" spans="1:65" s="80" customFormat="1" ht="14">
@@ -17939,12 +17985,12 @@
       <c r="H20" s="71"/>
       <c r="I20" s="72">
         <f>I14-I19</f>
-        <v>107849.5715377999</v>
+        <v>103649.5715377999</v>
       </c>
       <c r="J20" s="72"/>
       <c r="K20" s="72">
         <f t="shared" ref="K20:S20" si="1">K14-K19</f>
-        <v>100108.55787364997</v>
+        <v>104008.55787364997</v>
       </c>
       <c r="L20" s="72"/>
       <c r="M20" s="72">
@@ -17954,7 +18000,7 @@
       <c r="N20" s="72"/>
       <c r="O20" s="72">
         <f t="shared" si="1"/>
-        <v>36698.493425549983</v>
+        <v>30998.493425549979</v>
       </c>
       <c r="P20" s="72"/>
       <c r="Q20" s="72">
@@ -17969,7 +18015,7 @@
       <c r="T20" s="72"/>
       <c r="U20" s="275">
         <f>U14-U19</f>
-        <v>244656.62283699989</v>
+        <v>238656.62283699989</v>
       </c>
       <c r="W20" s="71"/>
       <c r="X20" s="72">
@@ -18048,7 +18094,7 @@
       <c r="BC20" s="68"/>
       <c r="BD20" s="75">
         <f>BD14-BD19</f>
-        <v>244656.62283699989</v>
+        <v>238656.62283699989</v>
       </c>
       <c r="BE20" s="68"/>
       <c r="BF20" s="76">
@@ -18068,7 +18114,7 @@
       <c r="BL20" s="78"/>
       <c r="BM20" s="79">
         <f>SUM(BD20,BF20,BH20,BJ20)</f>
-        <v>294274.62283699989</v>
+        <v>288274.62283699989</v>
       </c>
     </row>
     <row r="21" spans="2:65" s="80" customFormat="1" ht="15" thickBot="1">
@@ -18087,12 +18133,12 @@
       <c r="H21" s="71"/>
       <c r="I21" s="72">
         <f>I20*$E$21</f>
-        <v>58778.016488100948</v>
+        <v>56489.016488100948</v>
       </c>
       <c r="J21" s="72"/>
       <c r="K21" s="72">
         <f t="shared" ref="K21:S21" si="14">K20*$E$21</f>
-        <v>54559.164041139236</v>
+        <v>56684.664041139236</v>
       </c>
       <c r="L21" s="72"/>
       <c r="M21" s="72">
@@ -18102,7 +18148,7 @@
       <c r="N21" s="72"/>
       <c r="O21" s="72">
         <f t="shared" si="14"/>
-        <v>20000.678916924742</v>
+        <v>16894.178916924739</v>
       </c>
       <c r="P21" s="72"/>
       <c r="Q21" s="72">
@@ -18117,7 +18163,7 @@
       <c r="T21" s="72"/>
       <c r="U21" s="275">
         <f>U20*$E$21</f>
-        <v>133337.85944616495</v>
+        <v>130067.85944616495</v>
       </c>
       <c r="W21" s="71"/>
       <c r="X21" s="72">
@@ -18196,7 +18242,7 @@
       <c r="BC21" s="68"/>
       <c r="BD21" s="75">
         <f t="shared" ref="BD21" si="26">BD20*$E$21</f>
-        <v>133337.85944616495</v>
+        <v>130067.85944616495</v>
       </c>
       <c r="BE21" s="68"/>
       <c r="BF21" s="76">
@@ -18216,7 +18262,7 @@
       <c r="BL21" s="78"/>
       <c r="BM21" s="79">
         <f>SUM(BD21,BF21,BH21,BJ21)</f>
-        <v>140967.85944616495</v>
+        <v>137697.85944616495</v>
       </c>
     </row>
     <row r="22" spans="2:65" s="61" customFormat="1" ht="17" thickBot="1">
@@ -18231,12 +18277,12 @@
       <c r="H22" s="71"/>
       <c r="I22" s="86">
         <f>I21+I14</f>
-        <v>166627.58802590086</v>
+        <v>160138.58802590086</v>
       </c>
       <c r="J22" s="71"/>
       <c r="K22" s="86">
         <f>K21+K14</f>
-        <v>154667.7219147892</v>
+        <v>160693.2219147892</v>
       </c>
       <c r="L22" s="71"/>
       <c r="M22" s="86">
@@ -18246,7 +18292,7 @@
       <c r="N22" s="71"/>
       <c r="O22" s="86">
         <f>O21+O14</f>
-        <v>85554.072342474712</v>
+        <v>76747.572342474712</v>
       </c>
       <c r="P22" s="71"/>
       <c r="Q22" s="86">
@@ -18261,7 +18307,7 @@
       <c r="T22" s="73"/>
       <c r="U22" s="277">
         <f>U21+U14</f>
-        <v>570360.48228316486</v>
+        <v>561090.48228316486</v>
       </c>
       <c r="W22" s="71"/>
       <c r="X22" s="86">
@@ -18340,7 +18386,7 @@
       <c r="BC22" s="68"/>
       <c r="BD22" s="88">
         <f>BD21+BD14</f>
-        <v>570360.48228316486</v>
+        <v>561090.48228316486</v>
       </c>
       <c r="BE22" s="68"/>
       <c r="BF22" s="89">
@@ -18360,7 +18406,7 @@
       <c r="BL22" s="78"/>
       <c r="BM22" s="91">
         <f>BM21+BM14</f>
-        <v>627608.48228316486</v>
+        <v>618338.48228316486</v>
       </c>
     </row>
     <row r="23" spans="2:65" s="61" customFormat="1" ht="14" thickBot="1">
@@ -20745,7 +20791,7 @@
         <v>204</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="D45" s="224" t="s">
         <v>130</v>
@@ -20763,11 +20809,11 @@
         <v>0</v>
       </c>
       <c r="J45" s="115">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K45" s="72">
         <f>$E45*J45</f>
-        <v>5100</v>
+        <v>6000</v>
       </c>
       <c r="L45" s="115">
         <v>0</v>
@@ -20777,11 +20823,11 @@
         <v>0</v>
       </c>
       <c r="N45" s="115">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O45" s="72">
         <f>$E45*N45</f>
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="P45" s="115">
         <v>0</v>
@@ -20933,7 +20979,7 @@
         <v>205</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="D46" s="224" t="s">
         <v>130</v>
@@ -20951,11 +20997,11 @@
         <v>0</v>
       </c>
       <c r="J46" s="115">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K46" s="72">
         <f t="shared" ref="K46:K55" si="79">$E46*J46</f>
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L46" s="115">
         <v>0</v>
@@ -20965,11 +21011,11 @@
         <v>0</v>
       </c>
       <c r="N46" s="115">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O46" s="72">
         <f t="shared" ref="O46:O55" si="81">$E46*N46</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="P46" s="115"/>
       <c r="Q46" s="72"/>
@@ -21037,7 +21083,7 @@
         <v>206</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="D47" s="224" t="s">
         <v>130</v>
@@ -21048,11 +21094,11 @@
       <c r="F47" s="93"/>
       <c r="G47" s="94"/>
       <c r="H47" s="115">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I47" s="72">
         <f t="shared" si="78"/>
-        <v>5100</v>
+        <v>6000</v>
       </c>
       <c r="J47" s="115">
         <v>0</v>
@@ -21069,11 +21115,11 @@
         <v>0</v>
       </c>
       <c r="N47" s="115">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O47" s="72">
         <f t="shared" si="81"/>
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="P47" s="115"/>
       <c r="Q47" s="72"/>
@@ -21138,7 +21184,7 @@
     </row>
     <row r="48" spans="2:65">
       <c r="B48" s="35" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="C48" s="35" t="s">
         <v>181</v>
@@ -21147,16 +21193,16 @@
         <v>130</v>
       </c>
       <c r="E48" s="92">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="F48" s="93"/>
       <c r="G48" s="94"/>
       <c r="H48" s="115">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I48" s="72">
         <f t="shared" si="78"/>
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="115">
         <v>0</v>
@@ -21173,11 +21219,11 @@
         <v>0</v>
       </c>
       <c r="N48" s="115">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O48" s="72">
         <f t="shared" si="81"/>
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="P48" s="115"/>
       <c r="Q48" s="72"/>
@@ -21185,11 +21231,11 @@
       <c r="S48" s="72"/>
       <c r="T48" s="98">
         <f t="shared" si="82"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" s="276">
         <f t="shared" si="71"/>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="W48" s="115"/>
       <c r="X48" s="72"/>
@@ -21218,11 +21264,11 @@
       <c r="BA48" s="97"/>
       <c r="BC48" s="98">
         <f t="shared" si="83"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD48" s="75">
         <f t="shared" si="74"/>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="BE48" s="98"/>
       <c r="BF48" s="76"/>
@@ -21233,11 +21279,11 @@
       <c r="BK48" s="61"/>
       <c r="BL48" s="78">
         <f t="shared" si="84"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM48" s="79">
         <f t="shared" si="77"/>
-        <v>6000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:65">
@@ -22064,12 +22110,12 @@
       <c r="H56" s="117"/>
       <c r="I56" s="102">
         <f>SUM(I45:I55)</f>
-        <v>10200</v>
+        <v>6000</v>
       </c>
       <c r="J56" s="117"/>
       <c r="K56" s="102">
         <f>SUM(K45:K55)</f>
-        <v>22100</v>
+        <v>26000</v>
       </c>
       <c r="L56" s="117"/>
       <c r="M56" s="102">
@@ -22079,7 +22125,7 @@
       <c r="N56" s="117"/>
       <c r="O56" s="102">
         <f>SUM(O45:O55)</f>
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="P56" s="117"/>
       <c r="Q56" s="102">
@@ -22094,7 +22140,7 @@
       <c r="T56" s="118"/>
       <c r="U56" s="278">
         <f>SUM(U45:U55)</f>
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="V56" s="99"/>
       <c r="W56" s="117"/>
@@ -22162,7 +22208,7 @@
       <c r="BC56" s="119"/>
       <c r="BD56" s="105">
         <f>SUM(BD45:BD55)</f>
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="BE56" s="119"/>
       <c r="BF56" s="106">
@@ -22180,7 +22226,7 @@
       <c r="BL56" s="121"/>
       <c r="BM56" s="109">
         <f>SUM(BM45:BM55)</f>
-        <v>38000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="57" spans="2:65" ht="14" thickBot="1">
@@ -23487,10 +23533,10 @@
     </row>
     <row r="69" spans="2:65">
       <c r="B69" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="247" t="s">
         <v>179</v>
@@ -24101,7 +24147,7 @@
       <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -25177,12 +25223,12 @@
       <c r="H10" s="71"/>
       <c r="I10" s="72">
         <f>I56</f>
-        <v>10200</v>
+        <v>6000</v>
       </c>
       <c r="J10" s="71"/>
       <c r="K10" s="72">
         <f>K56</f>
-        <v>22100</v>
+        <v>26000</v>
       </c>
       <c r="L10" s="71"/>
       <c r="M10" s="72">
@@ -25192,7 +25238,7 @@
       <c r="N10" s="71"/>
       <c r="O10" s="72">
         <f>O56</f>
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="P10" s="71"/>
       <c r="Q10" s="72">
@@ -25207,7 +25253,7 @@
       <c r="T10" s="73"/>
       <c r="U10" s="275">
         <f>U56</f>
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="W10" s="71"/>
       <c r="X10" s="72">
@@ -25277,7 +25323,7 @@
       <c r="BC10" s="68"/>
       <c r="BD10" s="75">
         <f>BD56</f>
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="BE10" s="68"/>
       <c r="BF10" s="76">
@@ -25297,7 +25343,7 @@
       <c r="BL10" s="78"/>
       <c r="BM10" s="79">
         <f>BM56</f>
-        <v>38000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="11" spans="1:65" s="61" customFormat="1" ht="14">
@@ -25719,12 +25765,12 @@
       <c r="H14" s="71"/>
       <c r="I14" s="72">
         <f>SUM(I9:I13)</f>
-        <v>110779.05868393391</v>
+        <v>106579.05868393391</v>
       </c>
       <c r="J14" s="71"/>
       <c r="K14" s="72">
         <f>SUM(K9:K13)</f>
-        <v>102448.81460985946</v>
+        <v>106348.81460985946</v>
       </c>
       <c r="L14" s="71"/>
       <c r="M14" s="72">
@@ -25734,7 +25780,7 @@
       <c r="N14" s="71"/>
       <c r="O14" s="72">
         <f>SUM(O9:O13)</f>
-        <v>67493.148228316481</v>
+        <v>61793.148228316481</v>
       </c>
       <c r="P14" s="71"/>
       <c r="Q14" s="72">
@@ -25749,7 +25795,7 @@
       <c r="T14" s="73"/>
       <c r="U14" s="275">
         <f>SUM(U9:U13)</f>
-        <v>449954.32152210991</v>
+        <v>443954.32152210991</v>
       </c>
       <c r="W14" s="71"/>
       <c r="X14" s="72">
@@ -25828,7 +25874,7 @@
       <c r="BC14" s="68"/>
       <c r="BD14" s="75">
         <f>SUM(BD9:BD13)</f>
-        <v>449954.32152210991</v>
+        <v>443954.32152210991</v>
       </c>
       <c r="BE14" s="68"/>
       <c r="BF14" s="76">
@@ -25848,7 +25894,7 @@
       <c r="BL14" s="78"/>
       <c r="BM14" s="79">
         <f>SUM(BM9:BM13,BJ14)</f>
-        <v>501353.32152210991</v>
+        <v>495353.32152210991</v>
       </c>
     </row>
     <row r="15" spans="1:65" s="80" customFormat="1" ht="14">
@@ -26316,12 +26362,12 @@
       <c r="H20" s="71"/>
       <c r="I20" s="72">
         <f>I14-I19</f>
-        <v>110779.05868393391</v>
+        <v>106579.05868393391</v>
       </c>
       <c r="J20" s="72"/>
       <c r="K20" s="72">
         <f t="shared" ref="K20:S20" si="1">K14-K19</f>
-        <v>102448.81460985946</v>
+        <v>106348.81460985946</v>
       </c>
       <c r="L20" s="72"/>
       <c r="M20" s="72">
@@ -26331,7 +26377,7 @@
       <c r="N20" s="72"/>
       <c r="O20" s="72">
         <f t="shared" si="1"/>
-        <v>37628.448228316483</v>
+        <v>31928.448228316483</v>
       </c>
       <c r="P20" s="72"/>
       <c r="Q20" s="72">
@@ -26346,7 +26392,7 @@
       <c r="T20" s="72"/>
       <c r="U20" s="275">
         <f>U14-U19</f>
-        <v>250856.32152210991</v>
+        <v>244856.32152210991</v>
       </c>
       <c r="W20" s="71"/>
       <c r="X20" s="72">
@@ -26425,7 +26471,7 @@
       <c r="BC20" s="68"/>
       <c r="BD20" s="75">
         <f>BD14-BD19</f>
-        <v>250856.32152210991</v>
+        <v>244856.32152210991</v>
       </c>
       <c r="BE20" s="68"/>
       <c r="BF20" s="76">
@@ -26445,7 +26491,7 @@
       <c r="BL20" s="78"/>
       <c r="BM20" s="79">
         <f>SUM(BD20,BF20,BH20,BJ20)</f>
-        <v>302255.32152210991</v>
+        <v>296255.32152210991</v>
       </c>
     </row>
     <row r="21" spans="2:65" s="80" customFormat="1" ht="15" thickBot="1">
@@ -26464,12 +26510,12 @@
       <c r="H21" s="71"/>
       <c r="I21" s="72">
         <f>I20*$E$21</f>
-        <v>60374.586982743982</v>
+        <v>58085.586982743982</v>
       </c>
       <c r="J21" s="72"/>
       <c r="K21" s="72">
         <f t="shared" ref="K21:S21" si="14">K20*$E$21</f>
-        <v>55834.60396237341</v>
+        <v>57960.10396237341</v>
       </c>
       <c r="L21" s="72"/>
       <c r="M21" s="72">
@@ -26479,7 +26525,7 @@
       <c r="N21" s="72"/>
       <c r="O21" s="72">
         <f t="shared" si="14"/>
-        <v>20507.504284432485</v>
+        <v>17401.004284432485</v>
       </c>
       <c r="P21" s="72"/>
       <c r="Q21" s="72">
@@ -26494,7 +26540,7 @@
       <c r="T21" s="72"/>
       <c r="U21" s="275">
         <f>U20*$E$21</f>
-        <v>136716.69522954992</v>
+        <v>133446.69522954992</v>
       </c>
       <c r="W21" s="71"/>
       <c r="X21" s="72">
@@ -26573,7 +26619,7 @@
       <c r="BC21" s="68"/>
       <c r="BD21" s="75">
         <f t="shared" ref="BD21" si="26">BD20*$E$21</f>
-        <v>136716.69522954992</v>
+        <v>133446.69522954992</v>
       </c>
       <c r="BE21" s="68"/>
       <c r="BF21" s="76">
@@ -26593,7 +26639,7 @@
       <c r="BL21" s="78"/>
       <c r="BM21" s="79">
         <f>SUM(BD21,BF21,BH21,BJ21)</f>
-        <v>144346.69522954992</v>
+        <v>141076.69522954992</v>
       </c>
     </row>
     <row r="22" spans="2:65" s="61" customFormat="1" ht="17" thickBot="1">
@@ -26608,12 +26654,12 @@
       <c r="H22" s="71"/>
       <c r="I22" s="86">
         <f>I21+I14</f>
-        <v>171153.64566667788</v>
+        <v>164664.64566667788</v>
       </c>
       <c r="J22" s="71"/>
       <c r="K22" s="86">
         <f>K21+K14</f>
-        <v>158283.41857223288</v>
+        <v>164308.91857223288</v>
       </c>
       <c r="L22" s="71"/>
       <c r="M22" s="86">
@@ -26623,7 +26669,7 @@
       <c r="N22" s="71"/>
       <c r="O22" s="86">
         <f>O21+O14</f>
-        <v>88000.652512748959</v>
+        <v>79194.152512748959</v>
       </c>
       <c r="P22" s="71"/>
       <c r="Q22" s="86">
@@ -26638,7 +26684,7 @@
       <c r="T22" s="73"/>
       <c r="U22" s="277">
         <f>U21+U14</f>
-        <v>586671.0167516598</v>
+        <v>577401.0167516598</v>
       </c>
       <c r="W22" s="71"/>
       <c r="X22" s="86">
@@ -26717,7 +26763,7 @@
       <c r="BC22" s="68"/>
       <c r="BD22" s="88">
         <f>BD21+BD14</f>
-        <v>586671.0167516598</v>
+        <v>577401.0167516598</v>
       </c>
       <c r="BE22" s="68"/>
       <c r="BF22" s="89">
@@ -26737,7 +26783,7 @@
       <c r="BL22" s="78"/>
       <c r="BM22" s="91">
         <f>BM21+BM14</f>
-        <v>645700.0167516598</v>
+        <v>636430.0167516598</v>
       </c>
     </row>
     <row r="23" spans="2:65" s="61" customFormat="1" ht="14" thickBot="1">
@@ -29122,7 +29168,7 @@
         <v>204</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="D45" s="224" t="s">
         <v>130</v>
@@ -29140,11 +29186,11 @@
         <v>0</v>
       </c>
       <c r="J45" s="115">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K45" s="72">
         <f>$E45*J45</f>
-        <v>5100</v>
+        <v>6000</v>
       </c>
       <c r="L45" s="115">
         <v>0</v>
@@ -29154,11 +29200,11 @@
         <v>0</v>
       </c>
       <c r="N45" s="115">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O45" s="72">
         <f>$E45*N45</f>
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="P45" s="115">
         <v>0</v>
@@ -29310,7 +29356,7 @@
         <v>205</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="D46" s="224" t="s">
         <v>130</v>
@@ -29328,11 +29374,11 @@
         <v>0</v>
       </c>
       <c r="J46" s="115">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K46" s="72">
         <f t="shared" ref="K46:K55" si="79">$E46*J46</f>
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L46" s="115">
         <v>0</v>
@@ -29342,11 +29388,11 @@
         <v>0</v>
       </c>
       <c r="N46" s="115">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O46" s="72">
         <f t="shared" ref="O46:O55" si="81">$E46*N46</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="P46" s="115"/>
       <c r="Q46" s="72"/>
@@ -29426,7 +29472,7 @@
         <v>206</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="D47" s="224" t="s">
         <v>130</v>
@@ -29437,11 +29483,11 @@
       <c r="F47" s="93"/>
       <c r="G47" s="94"/>
       <c r="H47" s="115">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I47" s="72">
         <f t="shared" si="78"/>
-        <v>5100</v>
+        <v>6000</v>
       </c>
       <c r="J47" s="115">
         <v>0</v>
@@ -29458,11 +29504,11 @@
         <v>0</v>
       </c>
       <c r="N47" s="115">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O47" s="72">
         <f t="shared" si="81"/>
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="P47" s="115"/>
       <c r="Q47" s="72"/>
@@ -29539,7 +29585,7 @@
     </row>
     <row r="48" spans="2:65">
       <c r="B48" s="35" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="C48" s="35" t="s">
         <v>181</v>
@@ -29548,16 +29594,16 @@
         <v>130</v>
       </c>
       <c r="E48" s="92">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="F48" s="93"/>
       <c r="G48" s="94"/>
       <c r="H48" s="115">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I48" s="72">
         <f t="shared" si="78"/>
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="115">
         <v>0</v>
@@ -29574,11 +29620,11 @@
         <v>0</v>
       </c>
       <c r="N48" s="115">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O48" s="72">
         <f t="shared" si="81"/>
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="P48" s="115"/>
       <c r="Q48" s="72"/>
@@ -29586,11 +29632,11 @@
       <c r="S48" s="72"/>
       <c r="T48" s="98">
         <f t="shared" si="82"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" s="276">
         <f t="shared" si="71"/>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="W48" s="115"/>
       <c r="X48" s="72"/>
@@ -29619,11 +29665,11 @@
       <c r="BA48" s="97"/>
       <c r="BC48" s="98">
         <f t="shared" si="83"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD48" s="75">
         <f t="shared" si="74"/>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="BE48" s="98">
         <f t="shared" si="84"/>
@@ -29646,11 +29692,11 @@
       <c r="BK48" s="61"/>
       <c r="BL48" s="78">
         <f t="shared" si="86"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM48" s="79">
         <f t="shared" si="77"/>
-        <v>6000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:65">
@@ -30549,12 +30595,12 @@
       <c r="H56" s="117"/>
       <c r="I56" s="102">
         <f>SUM(I45:I55)</f>
-        <v>10200</v>
+        <v>6000</v>
       </c>
       <c r="J56" s="117"/>
       <c r="K56" s="102">
         <f>SUM(K45:K55)</f>
-        <v>22100</v>
+        <v>26000</v>
       </c>
       <c r="L56" s="117"/>
       <c r="M56" s="102">
@@ -30564,7 +30610,7 @@
       <c r="N56" s="117"/>
       <c r="O56" s="102">
         <f>SUM(O45:O55)</f>
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="P56" s="117"/>
       <c r="Q56" s="102">
@@ -30579,7 +30625,7 @@
       <c r="T56" s="118"/>
       <c r="U56" s="278">
         <f>SUM(U45:U55)</f>
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="V56" s="99"/>
       <c r="W56" s="117"/>
@@ -30647,7 +30693,7 @@
       <c r="BC56" s="119"/>
       <c r="BD56" s="105">
         <f>SUM(BD45:BD55)</f>
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="BE56" s="119"/>
       <c r="BF56" s="106">
@@ -30665,7 +30711,7 @@
       <c r="BL56" s="121"/>
       <c r="BM56" s="109">
         <f>SUM(BM45:BM55)</f>
-        <v>38000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="57" spans="2:65" ht="14" thickBot="1">
@@ -31972,10 +32018,10 @@
     </row>
     <row r="69" spans="2:65">
       <c r="B69" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="247" t="s">
         <v>179</v>
@@ -32583,7 +32629,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -32718,55 +32764,99 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="188"/>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
+      <c r="A7" s="188" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="423" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="423" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="423" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="423" t="s">
+        <v>223</v>
+      </c>
       <c r="F7" s="190">
-        <v>1</v>
-      </c>
-      <c r="G7" s="190"/>
-      <c r="H7" s="191"/>
-      <c r="I7" s="191"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="191"/>
-      <c r="L7" s="191"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="190">
+        <v>4</v>
+      </c>
+      <c r="H7" s="191">
+        <v>1500</v>
+      </c>
+      <c r="I7" s="191">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="191">
+        <v>144</v>
+      </c>
+      <c r="K7" s="191">
+        <v>100</v>
+      </c>
+      <c r="L7" s="191">
+        <v>0</v>
+      </c>
       <c r="M7" s="191">
-        <v>15000</v>
+        <v>256</v>
       </c>
       <c r="N7" s="249"/>
       <c r="O7" s="192">
         <f>SUM(H7:M7)</f>
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="P7" s="192">
         <f>F7*O7</f>
-        <v>15000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="188"/>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="191"/>
+      <c r="A8" s="188" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="423" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="423" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="193" t="s">
+        <v>225</v>
+      </c>
+      <c r="E8" s="423" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="190">
+        <v>3</v>
+      </c>
+      <c r="G8" s="190">
+        <v>3</v>
+      </c>
+      <c r="H8" s="191">
+        <v>1200</v>
+      </c>
+      <c r="I8" s="191">
+        <v>500</v>
+      </c>
+      <c r="J8" s="191">
+        <v>108</v>
+      </c>
       <c r="K8" s="191"/>
       <c r="L8" s="191"/>
-      <c r="M8" s="191"/>
+      <c r="M8" s="191">
+        <v>192</v>
+      </c>
       <c r="N8" s="249"/>
       <c r="O8" s="192">
         <f>SUM(H8:M8)</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="P8" s="192">
         <f t="shared" ref="P8" si="0">F8*O8</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18">
@@ -32793,55 +32883,99 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="188"/>
-      <c r="B10" s="189"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
+      <c r="A10" s="188" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="423" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="423" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="423" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="423" t="s">
+        <v>223</v>
+      </c>
       <c r="F10" s="190">
-        <v>1</v>
-      </c>
-      <c r="G10" s="190"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="191"/>
-      <c r="L10" s="191"/>
+        <v>3</v>
+      </c>
+      <c r="G10" s="190">
+        <v>4</v>
+      </c>
+      <c r="H10" s="191">
+        <v>1200</v>
+      </c>
+      <c r="I10" s="191">
+        <v>500</v>
+      </c>
+      <c r="J10" s="191">
+        <v>108</v>
+      </c>
+      <c r="K10" s="191">
+        <v>0</v>
+      </c>
+      <c r="L10" s="191">
+        <v>0</v>
+      </c>
       <c r="M10" s="191">
-        <v>12000</v>
+        <v>192</v>
       </c>
       <c r="N10" s="249"/>
       <c r="O10" s="192">
         <f>SUM(H10:M10)</f>
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="P10" s="192">
         <f>F10*O10</f>
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="188"/>
-      <c r="B11" s="189"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="191"/>
-      <c r="I11" s="191"/>
-      <c r="J11" s="191"/>
+      <c r="A11" s="188" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="423" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="423" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="193" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" s="423" t="s">
+        <v>226</v>
+      </c>
+      <c r="F11" s="190">
+        <v>3</v>
+      </c>
+      <c r="G11" s="190">
+        <v>3</v>
+      </c>
+      <c r="H11" s="191">
+        <v>1200</v>
+      </c>
+      <c r="I11" s="191">
+        <v>500</v>
+      </c>
+      <c r="J11" s="191">
+        <v>108</v>
+      </c>
       <c r="K11" s="191"/>
       <c r="L11" s="191"/>
-      <c r="M11" s="191"/>
+      <c r="M11" s="191">
+        <v>192</v>
+      </c>
       <c r="N11" s="249"/>
       <c r="O11" s="192">
         <f>SUM(H11:M11)</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="P11" s="192">
         <f t="shared" ref="P11" si="1">F11*O11</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="18" customHeight="1">
@@ -32868,55 +33002,99 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="188"/>
-      <c r="B13" s="189"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
+      <c r="A13" s="188" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="423" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="423" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="423" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="423" t="s">
+        <v>223</v>
+      </c>
       <c r="F13" s="190">
-        <v>1</v>
-      </c>
-      <c r="G13" s="190"/>
-      <c r="H13" s="191"/>
-      <c r="I13" s="191"/>
-      <c r="J13" s="191"/>
-      <c r="K13" s="191"/>
-      <c r="L13" s="191"/>
+        <v>3</v>
+      </c>
+      <c r="G13" s="190">
+        <v>4</v>
+      </c>
+      <c r="H13" s="191">
+        <v>1200</v>
+      </c>
+      <c r="I13" s="191">
+        <v>500</v>
+      </c>
+      <c r="J13" s="191">
+        <v>108</v>
+      </c>
+      <c r="K13" s="191">
+        <v>0</v>
+      </c>
+      <c r="L13" s="191">
+        <v>0</v>
+      </c>
       <c r="M13" s="191">
-        <v>12000</v>
+        <v>192</v>
       </c>
       <c r="N13" s="249"/>
       <c r="O13" s="192">
         <f>SUM(H13:M13)</f>
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="P13" s="192">
         <f>F13*O13</f>
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="188"/>
-      <c r="B14" s="189"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="191"/>
-      <c r="J14" s="191"/>
+      <c r="A14" s="188" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="423" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="423" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="193" t="s">
+        <v>225</v>
+      </c>
+      <c r="E14" s="423" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="190">
+        <v>3</v>
+      </c>
+      <c r="G14" s="190">
+        <v>3</v>
+      </c>
+      <c r="H14" s="191">
+        <v>1200</v>
+      </c>
+      <c r="I14" s="191">
+        <v>500</v>
+      </c>
+      <c r="J14" s="191">
+        <v>108</v>
+      </c>
       <c r="K14" s="191"/>
       <c r="L14" s="191"/>
-      <c r="M14" s="191"/>
+      <c r="M14" s="191">
+        <v>192</v>
+      </c>
       <c r="N14" s="249"/>
       <c r="O14" s="192">
         <f>SUM(H14:M14)</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="P14" s="192">
         <f t="shared" ref="P14" si="2">F14*O14</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="18" customHeight="1">
@@ -33030,7 +33208,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="422" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7" s="211">
         <v>50884</v>
@@ -33038,7 +33216,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="422" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B8" s="211">
         <v>2000</v>
@@ -33055,7 +33233,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="422" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B10" s="211">
         <v>35618</v>
@@ -33063,7 +33241,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="422" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B11" s="211">
         <v>2000</v>
@@ -33080,7 +33258,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="422" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B13" s="211">
         <v>37399</v>
@@ -33088,7 +33266,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="422" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B14" s="211">
         <v>2000</v>
